--- a/Rewards.xlsx
+++ b/Rewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridan\Desktop\Predator_Prey_ExpSARSA - HungerStates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0673A638-0843-4770-9432-78505192B005}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D2E27-EFE4-4C4B-AF89-4D0AD50B8DF3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17625" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,8 +563,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,7 +924,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,16 +953,16 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.05</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -969,16 +970,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-      <c r="D3">
-        <v>0.99</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -986,33 +987,33 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.99</v>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1020,16 +1021,16 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.05</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1037,16 +1038,16 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.99</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1054,33 +1055,33 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.99</v>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1088,16 +1089,16 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0.05</v>
-      </c>
-      <c r="D10">
-        <v>0.05</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1105,16 +1106,16 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0.25</v>
-      </c>
-      <c r="D11">
-        <v>0.99</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1122,33 +1123,33 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.99</v>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1156,16 +1157,16 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0.05</v>
-      </c>
-      <c r="D14">
-        <v>0.5</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1173,16 +1174,16 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0.25</v>
-      </c>
-      <c r="D15">
-        <v>0.99</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1190,33 +1191,33 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0.99</v>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Rewards.xlsx
+++ b/Rewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridan\Desktop\Predator_Prey_ExpSARSA - HungerStates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D2E27-EFE4-4C4B-AF89-4D0AD50B8DF3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E126A967-8B87-4442-9F32-ED658C9AC679}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17625" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>NO_FOOD</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>GIVEN_BIRTHFLEE</t>
+  </si>
+  <si>
+    <t>NOT_GIVEN_BIRTHRAND</t>
+  </si>
+  <si>
+    <t>NOT_GIVEN_BIRTHHUNT</t>
+  </si>
+  <si>
+    <t>NOT_GIVEN_BIRTHMULTIPLY</t>
+  </si>
+  <si>
+    <t>NOT_GIVEN_BIRTHFLEE</t>
+  </si>
+  <si>
+    <t>NOT_GIVEN_BIRTH</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -921,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,9 +951,10 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -948,8 +967,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -965,8 +987,11 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -982,8 +1007,11 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -999,8 +1027,11 @@
       <c r="E4" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1016,8 +1047,11 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1067,11 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1050,8 +1087,11 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1107,11 @@
       <c r="E8" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1084,8 +1127,11 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1101,8 +1147,11 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1118,8 +1167,11 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1135,8 +1187,11 @@
       <c r="E12" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1152,8 +1207,11 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1169,8 +1227,11 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1186,8 +1247,11 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1203,8 +1267,11 @@
       <c r="E16" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1219,6 +1286,89 @@
       </c>
       <c r="E17" s="1">
         <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
